--- a/selenium/prompt/bookstore/打鍵指示書.xlsx
+++ b/selenium/prompt/bookstore/打鍵指示書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\udemy_projects\learn_java_testing\selenium\prompt\bookstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DDAED6-8299-41CC-A637-5E9BC383776D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DCC0C7-39B1-489A-A050-4D0222FC925D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="17656" activeTab="1" xr2:uid="{63947DA7-0389-4574-B9B0-A62B038B36A8}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="17656" xr2:uid="{63947DA7-0389-4574-B9B0-A62B038B36A8}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>ボディの行数</t>
+  </si>
+  <si>
+    <t>ポップアップウィンドウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -274,12 +286,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -607,280 +616,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC815EE0-F415-4D3A-9BB0-5FB8F16A3CD5}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.69921875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="30.69921875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="7.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="30.69921875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="2">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="2">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -892,404 +970,446 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2482DB-E5E1-4C84-AA73-12D7AC054C2F}">
-  <dimension ref="B2:F28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E30" sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="30.69921875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="7.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="30.69921875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
-        <v>36526</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="3">
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="3">
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="4">
+      <c r="E15" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="3">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="3">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="3">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="3">
+    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="3">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="3">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="4" t="s">
+    <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="3">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1301,410 +1421,511 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA03443B-F43C-49D6-A579-350CBFA3000B}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.69921875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="30.69921875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="7.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="30.69921875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/selenium/prompt/bookstore/打鍵指示書.xlsx
+++ b/selenium/prompt/bookstore/打鍵指示書.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\udemy_projects\learn_java_testing\selenium\prompt\bookstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DCC0C7-39B1-489A-A050-4D0222FC925D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DC4312-B9E2-4F31-8DD8-CCD9930B291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="17656" xr2:uid="{63947DA7-0389-4574-B9B0-A62B038B36A8}"/>
+    <workbookView xWindow="-32168" yWindow="1515" windowWidth="32281" windowHeight="17656" activeTab="3" xr2:uid="{63947DA7-0389-4574-B9B0-A62B038B36A8}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="2" r:id="rId1"/>
     <sheet name="test2" sheetId="3" r:id="rId2"/>
     <sheet name="test3" sheetId="1" r:id="rId3"/>
+    <sheet name="test4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -218,6 +219,26 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cloud</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button-14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -320,9 +341,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -360,7 +381,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -466,7 +487,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC815EE0-F415-4D3A-9BB0-5FB8F16A3CD5}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -802,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -812,14 +833,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -830,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -840,15 +861,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
@@ -857,11 +876,13 @@
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
@@ -888,7 +909,7 @@
         <v>56</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -896,13 +917,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
@@ -911,13 +934,11 @@
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
@@ -931,34 +952,6 @@
         <v>16</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -970,10 +963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2482DB-E5E1-4C84-AA73-12D7AC054C2F}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E30" sqref="A1:E30"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1255,7 +1248,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1265,13 +1258,15 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
@@ -1281,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1291,15 +1286,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
@@ -1308,11 +1301,13 @@
       <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
@@ -1339,7 +1334,7 @@
         <v>56</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1347,13 +1342,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
@@ -1362,13 +1359,11 @@
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
@@ -1382,34 +1377,6 @@
         <v>16</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1424,7 +1391,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1933,4 +1900,438 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038A79EA-009A-4D65-B762-4C0166302E17}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="30.69921875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/selenium/prompt/bookstore/打鍵指示書.xlsx
+++ b/selenium/prompt/bookstore/打鍵指示書.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubRepos\udemy_projects\learn_java_testing\selenium\prompt\bookstore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DC4312-B9E2-4F31-8DD8-CCD9930B291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CC5C62-BD2E-4492-8482-88D144B1C5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32168" yWindow="1515" windowWidth="32281" windowHeight="17656" activeTab="3" xr2:uid="{63947DA7-0389-4574-B9B0-A62B038B36A8}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="32281" windowHeight="17656" activeTab="1" xr2:uid="{63947DA7-0389-4574-B9B0-A62B038B36A8}"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="2" r:id="rId1"/>
-    <sheet name="test2" sheetId="3" r:id="rId2"/>
-    <sheet name="test3" sheetId="1" r:id="rId3"/>
-    <sheet name="test4" sheetId="4" r:id="rId4"/>
+    <sheet name="test2" sheetId="5" r:id="rId2"/>
+    <sheet name="test3ボツ" sheetId="3" r:id="rId3"/>
+    <sheet name="test4ボツ" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="64">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="61">
   <si>
     <t>指示</t>
   </si>
@@ -119,27 +116,9 @@
     <t>search1Button</t>
   </si>
   <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>button-17</t>
-  </si>
-  <si>
     <t>toSelectLink</t>
   </si>
   <si>
-    <t>button-18</t>
-  </si>
-  <si>
-    <t>button-19</t>
-  </si>
-  <si>
-    <t>check-18</t>
-  </si>
-  <si>
     <t>removeButton</t>
   </si>
   <si>
@@ -164,13 +143,6 @@
     <t>FinishPage</t>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>button-2</t>
-  </si>
-  <si>
     <t>button-5</t>
   </si>
   <si>
@@ -180,9 +152,6 @@
     <t>newCustomerLink</t>
   </si>
   <si>
-    <t>CustomerInputPage</t>
-  </si>
-  <si>
     <t>customerName</t>
   </si>
   <si>
@@ -202,9 +171,6 @@
   </si>
   <si>
     <t>registerButton</t>
-  </si>
-  <si>
-    <t>CustomerOutputPage</t>
   </si>
   <si>
     <t>ボディの行数</t>
@@ -239,6 +205,38 @@
   </si>
   <si>
     <t>button-14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logoutButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TopPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CartViewPage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>button-11</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -637,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC815EE0-F415-4D3A-9BB0-5FB8F16A3CD5}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A21"/>
+      <selection activeCell="A24" sqref="A1:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -654,19 +652,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -674,12 +672,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -687,14 +685,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -702,14 +700,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -717,14 +715,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -732,12 +730,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -745,14 +743,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -760,31 +758,27 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -792,10 +786,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -805,42 +799,42 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -848,10 +842,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -861,38 +855,38 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -902,40 +896,36 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -945,15 +935,56 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -962,11 +993,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2482DB-E5E1-4C84-AA73-12D7AC054C2F}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA06C85-DC86-4223-804E-0471123CDBC8}">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="A1:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -980,19 +1011,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1000,12 +1031,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1013,27 +1044,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1041,14 +1074,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1056,14 +1089,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1071,14 +1104,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1086,14 +1117,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4">
-        <v>36526</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1101,14 +1132,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1116,27 +1149,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1144,44 +1181,42 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1189,16 +1224,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1206,23 +1239,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1232,23 +1267,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1258,14 +1295,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1273,68 +1310,72 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <v>11</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1342,14 +1383,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1357,10 +1398,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1370,14 +1411,167 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1387,11 +1581,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA03443B-F43C-49D6-A579-350CBFA3000B}">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2482DB-E5E1-4C84-AA73-12D7AC054C2F}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1405,19 +1599,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1425,12 +1619,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1438,29 +1632,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1468,14 +1660,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1483,12 +1675,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1496,14 +1690,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
+        <v>36526</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1511,16 +1705,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1528,10 +1720,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1541,360 +1733,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="E11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1904,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038A79EA-009A-4D65-B762-4C0166302E17}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1921,19 +1779,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1941,12 +1799,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1954,14 +1812,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1969,14 +1827,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1984,14 +1842,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -1999,12 +1857,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -2012,14 +1872,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -2027,16 +1885,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -2044,10 +1900,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2057,23 +1913,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2083,23 +1941,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2109,14 +1969,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -2124,29 +1984,27 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -2154,10 +2012,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2167,14 +2025,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -2182,64 +2040,68 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2249,11 +2111,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>57</v>
@@ -2264,10 +2126,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2277,14 +2139,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
@@ -2292,25 +2154,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2320,14 +2180,85 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
